--- a/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项1跳转对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2跳转对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医生我肚子痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,18 +61,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打死你个龟孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那你去死吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打死你个龟孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我打你是治疗你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +74,62 @@
   </si>
   <si>
     <t>我不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不得行好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那我去死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就是搞我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你先停手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你个龟孙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你个龟孙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你个龟孙3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,22 +455,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,101 +481,122 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>5</v>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>占位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不得行好痛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +122,14 @@
   </si>
   <si>
     <t>打死你个龟孙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了等死吧告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,13 +458,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -507,19 +507,19 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
         <v>18</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -533,16 +533,19 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -556,16 +559,19 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -579,16 +585,19 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -597,6 +606,12 @@
       </c>
       <c r="B6" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
@@ -19,28 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要死了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,63 +57,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不得行好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那我去死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就是搞我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你先停手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了等死吧告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生我肚子痛_你给我看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不你_不痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你_去死吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打你_是治疗你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我_没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了_等死吧_告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你2</t>
+  </si>
+  <si>
+    <t>打死你3</t>
+  </si>
+  <si>
     <t>我不是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
+    <t>我_不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打_死你个龟孙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死_你个龟孙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你_个龟孙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9选项1影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,164 +501,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
@@ -1,213 +1,491 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>对话编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你别打我了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生你搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打你是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+  </si>
+  <si>
+    <t>9选项1影响</t>
+  </si>
+  <si>
+    <t>我的家庭很普通，爸爸妈妈都是是公司职员，上了小学之后，爸爸妈妈给我报了好多兴趣班，学钢琴、学英语、学数学。_他们经常告诉我，我是全家的希望，一定要好好学习，不要像他们一样碌碌无为，我好羡慕其他同学可以放学回家看动画片，或者周末去游乐园玩。_爸爸妈妈说他们是为了我好，家里条件不好，等我长大吃了苦才后悔没好好学习已经来不及了，我知道他们说得对，但是…</t>
+  </si>
+  <si>
+    <t>尝试沟通（鼓励）</t>
+  </si>
+  <si>
+    <t>你父母肯定是爱你的，只不过将自己对过去的后悔强加在你身上而已，你能明白已经很好了，沟通是相处的关键，你可以和父母讲一讲你的感受。</t>
+  </si>
+  <si>
+    <t>我和他们讲过我不想上那么多兴趣班，但是他们根本就听不进去。</t>
+  </si>
+  <si>
+    <t>没吃过苦（打击）</t>
+  </si>
+  <si>
+    <t>现在的小孩没吃过苦不知道日子多艰难，我小时候想学钢琴还没那条件呢，你要珍惜呀，反正父母嘛，你抗议了也没用。</t>
+  </si>
+  <si>
+    <t>是呀，他们就是说着爱我，根本不管我愿不愿意，说了也没用。</t>
+  </si>
+  <si>
+    <t>唉，要是他们能多听听我的想法就好了...</t>
+  </si>
+  <si>
+    <t>沟通技巧（安抚）</t>
+  </si>
+  <si>
+    <t>沟通是需要技巧的，不是说你不想去就行，你要讲出原因而不是单纯表达意愿</t>
+  </si>
+  <si>
+    <t>我说我不喜欢兴趣班的东西，想玩游戏，看动画他们肯定会揍我一顿。</t>
+  </si>
+  <si>
+    <t>讲道理（劝说）</t>
+  </si>
+  <si>
+    <t>百善孝为先，我劝你就乖乖去上兴趣班，小孩看动画片玩游戏纯粹是浪费时间</t>
+  </si>
+  <si>
+    <t>可是我不想一整天都在学那些我完全不喜欢的东西。</t>
+  </si>
+  <si>
+    <t>但是不喜欢的东西怎么可能学的进去嘛！</t>
+  </si>
+  <si>
+    <t>寻找乐趣（鼓励）</t>
+  </si>
+  <si>
+    <t>其实你觉得你不喜欢有可能是因为你是被迫去上的，如果你换个想法，从这些兴趣班上找到乐趣，说不定你不会觉得那么烦，你再和爸爸妈妈说就专注你感兴趣的，他们自然不会再强迫你去上其他的了</t>
+  </si>
+  <si>
+    <t>医生你真厉害！</t>
+  </si>
+  <si>
+    <t>多学东西（打击）</t>
+  </si>
+  <si>
+    <t>你这个年纪根本不知道什么是你喜欢的，你多去上上兴趣班自然而然就喜欢了，等你长大了就知道学这些东西有用的</t>
+  </si>
+  <si>
+    <t>以后我也想做医生！</t>
+  </si>
+  <si>
+    <t>治疗结束</t>
+  </si>
+  <si>
+    <t>今天治疗就到这里了，还有啥问题的话可以预约下周哈！</t>
+  </si>
+  <si>
+    <t>医生再见！</t>
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛_你给我看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你_不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你_去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打你_是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了_等死吧_告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你2</t>
-  </si>
-  <si>
-    <t>打死你3</t>
-  </si>
-  <si>
-    <t>我不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打_死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死_你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你_个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2选项1提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6选项 2提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,24 +493,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +880,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,216 +1054,182 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U3D\cigagamejam2019\cig2019\Assets\streamingAssets\Xlsxs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="8385"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,6 +58,9 @@
     <t>我和他们讲过我不想上那么多兴趣班，但是他们根本就听不进去。</t>
   </si>
   <si>
+    <t>空</t>
+  </si>
+  <si>
     <t>没吃过苦（打击）</t>
   </si>
   <si>
@@ -124,17 +122,19 @@
   </si>
   <si>
     <t>结束</t>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,29 +143,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,25 +496,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,19 +1058,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
@@ -474,7 +1083,7 @@
     <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,109 +1131,109 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>